--- a/biology/Histoire de la zoologie et de la botanique/Kandt_House_Museum/Kandt_House_Museum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kandt_House_Museum/Kandt_House_Museum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kandt House Museum (anciennement Musée d'histoire naturelle de la maison Kandt) est un musée établi à Kigali, au Rwanda. Il est placé sous la responsabilité de l'Institut des musées nationaux du Rwanda. 
 Le musée est dédié à l'Allemand Richard Kandt, ses explorations et découvertes, et est établi dans son ancienne demeure localisée sur la colline Nyarugenge dans la ville de Kigali, transformée en musée d'histoire naturelle en 2006. 
 Le musée s'efforce de montrer l'évolution de la vie, la description de la flore et de la faune des parcs naturels rwandais (Nyungwe, Akagera et des volcans), le contexte géologique du Rwanda, l'histoire partagée de l'Allemagne et du Rwanda et l'exposition de reptiles vivants (serpents) dans le but d'expliquer l'interrelation entre la nature et l'histoire. 
-C'est également la meilleure vue sur trois montagnes, les monts (Kigali, Jali et Shyorongi) et la meilleure vue sur la vieille ville de Kigali[1]. 
+C'est également la meilleure vue sur trois montagnes, les monts (Kigali, Jali et Shyorongi) et la meilleure vue sur la vieille ville de Kigali. 
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée, autrefois connu sous le nom de Musée d'histoire naturelle (NHM), est situé KN 90, à environ un kilomètre du centre-ville de Kigali. Son nom a été modifié en « Kandt House Museum » le 17 décembre 2017. 
 Le Kandt House Museum comprend trois parties principales :  
